--- a/Resources/ExcelTemplateForOutletCreation.xlsx
+++ b/Resources/ExcelTemplateForOutletCreation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="138">
   <si>
     <t>Outlet Code</t>
   </si>
@@ -303,94 +303,136 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Tabish outlet 5</t>
-  </si>
-  <si>
-    <t>Tabish outlet 6</t>
-  </si>
-  <si>
-    <t>Tabish outlet 7</t>
-  </si>
-  <si>
-    <t>Tabish outlet 8</t>
-  </si>
-  <si>
     <t>2025-09-03</t>
   </si>
   <si>
-    <t>09649698569</t>
-  </si>
-  <si>
-    <t>09649698571</t>
-  </si>
-  <si>
-    <t>09649698572</t>
-  </si>
-  <si>
-    <t>09649698573</t>
-  </si>
-  <si>
     <t>Automation Outlet</t>
   </si>
   <si>
-    <t>03950861800</t>
-  </si>
-  <si>
-    <t>03954732700</t>
-  </si>
-  <si>
-    <t>03956498800</t>
-  </si>
-  <si>
-    <t>03958002200</t>
-  </si>
-  <si>
-    <t>03716819100</t>
-  </si>
-  <si>
-    <t>03718782600</t>
-  </si>
-  <si>
-    <t>03719685200</t>
-  </si>
-  <si>
-    <t>03720620200</t>
-  </si>
-  <si>
-    <t>03373510500</t>
-  </si>
-  <si>
-    <t>03381099100</t>
-  </si>
-  <si>
-    <t>03385200000</t>
-  </si>
-  <si>
-    <t>03388740000</t>
-  </si>
-  <si>
-    <t>03165227900</t>
-  </si>
-  <si>
-    <t>03170082300</t>
-  </si>
-  <si>
-    <t>03172495100</t>
-  </si>
-  <si>
-    <t>03174331300</t>
-  </si>
-  <si>
-    <t>03341800700</t>
-  </si>
-  <si>
-    <t>03349730500</t>
-  </si>
-  <si>
-    <t>03353281400</t>
-  </si>
-  <si>
-    <t>03356588800</t>
+    <t>AUTO_OUTL75E95</t>
+  </si>
+  <si>
+    <t>03560617700</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLA586C</t>
+  </si>
+  <si>
+    <t>03563372800</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL2D5A1</t>
+  </si>
+  <si>
+    <t>03565319800</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL47020</t>
+  </si>
+  <si>
+    <t>03300061800</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL9DD0E</t>
+  </si>
+  <si>
+    <t>03303406000</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLDC95B</t>
+  </si>
+  <si>
+    <t>03305480400</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLAFAEC</t>
+  </si>
+  <si>
+    <t>03342853900</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLDD54D</t>
+  </si>
+  <si>
+    <t>03346117000</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL81A29</t>
+  </si>
+  <si>
+    <t>03348229200</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL2457A</t>
+  </si>
+  <si>
+    <t>03482720100</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL5F3A0</t>
+  </si>
+  <si>
+    <t>03486781400</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL1D48E</t>
+  </si>
+  <si>
+    <t>03489384600</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL3ABF0</t>
+  </si>
+  <si>
+    <t>03088661000</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL5AF8B</t>
+  </si>
+  <si>
+    <t>03090788000</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLE0A1C</t>
+  </si>
+  <si>
+    <t>03092274000</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLC8598</t>
+  </si>
+  <si>
+    <t>03329875100</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL9DDD3</t>
+  </si>
+  <si>
+    <t>03331729700</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL7F3CD</t>
+  </si>
+  <si>
+    <t>03333366800</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL090EB</t>
+  </si>
+  <si>
+    <t>03546179700</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL6BD52</t>
+  </si>
+  <si>
+    <t>03547805400</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL9D338</t>
+  </si>
+  <si>
+    <t>03549211700</t>
   </si>
 </sst>
 </file>
@@ -470,17 +512,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -787,15 +819,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ5"/>
+  <dimension ref="A1:BQ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="11.7265625"/>
+    <col min="1" max="1" customWidth="true" style="1" width="18.6328125"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="19.54296875"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="23.453125"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="18.81640625"/>
@@ -1050,14 +1082,14 @@
       </c>
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.35">
-      <c r="B2" t="s" s="1">
-        <v>94</v>
-      </c>
-      <c r="C2" t="s" s="1">
-        <v>103</v>
-      </c>
-      <c r="D2" t="s" s="1">
-        <v>103</v>
+      <c r="B2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>69</v>
@@ -1077,11 +1109,11 @@
       <c r="O2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="4" t="n">
-        <v>24.400188976219436</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>100.838373333333</v>
+      <c r="P2" s="4">
+        <v>24.778867194283279</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>24.918102709670986</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>75</v>
@@ -1093,7 +1125,7 @@
         <v>77</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Y2" s="9" t="s">
         <v>78</v>
@@ -1137,7 +1169,7 @@
       </c>
       <c r="AW2" s="5"/>
       <c r="AY2" s="12" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="AZ2" s="11" t="s">
         <v>88</v>
@@ -1163,12 +1195,9 @@
       <c r="BK2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BL2" s="1"/>
       <c r="BM2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="BN2" s="3"/>
-      <c r="BO2" s="3"/>
       <c r="BP2" s="1" t="s">
         <v>90</v>
       </c>
@@ -1177,14 +1206,14 @@
       </c>
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.35">
-      <c r="B3" t="s" s="1">
+      <c r="B3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C3" t="s" s="1">
-        <v>103</v>
-      </c>
-      <c r="D3" t="s" s="1">
-        <v>103</v>
+      <c r="D3" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>69</v>
@@ -1204,11 +1233,11 @@
       <c r="O3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P3" s="4" t="n">
-        <v>24.864817400410956</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>100.838373333333</v>
+      <c r="P3" s="4">
+        <v>24.473190244254056</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>24.10089653159682</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>75</v>
@@ -1220,7 +1249,7 @@
         <v>77</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Y3" s="9" t="s">
         <v>78</v>
@@ -1264,7 +1293,7 @@
       </c>
       <c r="AW3" s="5"/>
       <c r="AY3" s="12" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="AZ3" s="11" t="s">
         <v>88</v>
@@ -1290,12 +1319,9 @@
       <c r="BK3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BL3" s="1"/>
       <c r="BM3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="BN3" s="3"/>
-      <c r="BO3" s="3"/>
       <c r="BP3" s="1" t="s">
         <v>90</v>
       </c>
@@ -1304,14 +1330,14 @@
       </c>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.35">
-      <c r="B4" t="s" s="1">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s" s="1">
-        <v>103</v>
-      </c>
-      <c r="D4" t="s" s="1">
-        <v>103</v>
+      <c r="B4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>69</v>
@@ -1331,11 +1357,11 @@
       <c r="O4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P4" s="4" t="n">
-        <v>24.583114707225445</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>100.838373333333</v>
+      <c r="P4" s="4">
+        <v>24.955290746872056</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>24.762808506327442</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>75</v>
@@ -1347,7 +1373,7 @@
         <v>77</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Y4" s="9" t="s">
         <v>78</v>
@@ -1391,7 +1417,7 @@
       </c>
       <c r="AW4" s="5"/>
       <c r="AY4" s="12" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="AZ4" s="11" t="s">
         <v>88</v>
@@ -1417,158 +1443,25 @@
       <c r="BK4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BL4" s="1"/>
       <c r="BM4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="BN4" s="3"/>
-      <c r="BO4" s="3"/>
       <c r="BP4" s="1" t="s">
         <v>90</v>
       </c>
       <c r="BQ4" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.35">
-      <c r="B5" t="s" s="1">
-        <v>97</v>
-      </c>
-      <c r="C5" t="s" s="1">
-        <v>103</v>
-      </c>
-      <c r="D5" t="s" s="1">
-        <v>103</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>24.07265574896357</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>100.838373333333</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z5" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="AA5" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="AB5" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="AD5" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="AE5" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="AO5" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AV5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW5" s="5"/>
-      <c r="AY5" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="AZ5" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA5" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="BB5" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="BG5" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="BH5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="BJ5" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="BK5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BL5" s="1"/>
-      <c r="BM5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BN5" s="3"/>
-      <c r="BO5" s="3"/>
-      <c r="BP5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BQ5" s="1" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AR2">
-    <cfRule type="duplicateValues" dxfId="3" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR3">
-    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR4">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR5">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Resources/ExcelTemplateForOutletCreation.xlsx
+++ b/Resources/ExcelTemplateForOutletCreation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="258">
   <si>
     <t>Outlet Code</t>
   </si>
@@ -433,6 +433,366 @@
   </si>
   <si>
     <t>03549211700</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLF6C52</t>
+  </si>
+  <si>
+    <t>03413148900</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLDDED0</t>
+  </si>
+  <si>
+    <t>03414695300</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLEEF25</t>
+  </si>
+  <si>
+    <t>03415590600</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL4377C</t>
+  </si>
+  <si>
+    <t>03520723700</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL5FB76</t>
+  </si>
+  <si>
+    <t>03521739000</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL905DC</t>
+  </si>
+  <si>
+    <t>03522478200</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL1E1C6</t>
+  </si>
+  <si>
+    <t>03776234100</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL4D284</t>
+  </si>
+  <si>
+    <t>03777302900</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL59416</t>
+  </si>
+  <si>
+    <t>03778047800</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLCB180</t>
+  </si>
+  <si>
+    <t>03478547800</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL9B135</t>
+  </si>
+  <si>
+    <t>03479931200</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL1A3AF</t>
+  </si>
+  <si>
+    <t>03480851200</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLA2355</t>
+  </si>
+  <si>
+    <t>03531063600</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL3F041</t>
+  </si>
+  <si>
+    <t>03531932100</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL9A661</t>
+  </si>
+  <si>
+    <t>03532537700</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLFC4FF</t>
+  </si>
+  <si>
+    <t>03548174700</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLE399D</t>
+  </si>
+  <si>
+    <t>03549357400</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL5924F</t>
+  </si>
+  <si>
+    <t>03550137100</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLEBEF1</t>
+  </si>
+  <si>
+    <t>03971637300</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL24B5F</t>
+  </si>
+  <si>
+    <t>03973677900</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL96BAC</t>
+  </si>
+  <si>
+    <t>03974738400</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLA8FDC</t>
+  </si>
+  <si>
+    <t>03807622800</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLED6EB</t>
+  </si>
+  <si>
+    <t>03808988800</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLAC781</t>
+  </si>
+  <si>
+    <t>03809881800</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLA4236</t>
+  </si>
+  <si>
+    <t>03913833600</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL703DB</t>
+  </si>
+  <si>
+    <t>03915067100</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL2BD86</t>
+  </si>
+  <si>
+    <t>03915851800</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL20E1D</t>
+  </si>
+  <si>
+    <t>03286627900</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL7A851</t>
+  </si>
+  <si>
+    <t>03288901000</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL3722A</t>
+  </si>
+  <si>
+    <t>03290167300</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLD42E5</t>
+  </si>
+  <si>
+    <t>03995745100</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL5ECF0</t>
+  </si>
+  <si>
+    <t>03997402400</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL84C1C</t>
+  </si>
+  <si>
+    <t>03998304800</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLAD539</t>
+  </si>
+  <si>
+    <t>03091887900</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL30FC2</t>
+  </si>
+  <si>
+    <t>03093059400</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLF73DF</t>
+  </si>
+  <si>
+    <t>03093830700</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL35527</t>
+  </si>
+  <si>
+    <t>03118130500</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL64106</t>
+  </si>
+  <si>
+    <t>03119784300</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLE8ABB</t>
+  </si>
+  <si>
+    <t>03120602800</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL7B2B0</t>
+  </si>
+  <si>
+    <t>03912010500</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL6B102</t>
+  </si>
+  <si>
+    <t>03913307700</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLA6F81</t>
+  </si>
+  <si>
+    <t>03914669400</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL65836</t>
+  </si>
+  <si>
+    <t>03285770200</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLE6617</t>
+  </si>
+  <si>
+    <t>03286792400</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL1D653</t>
+  </si>
+  <si>
+    <t>03287389100</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL92B67</t>
+  </si>
+  <si>
+    <t>03174403900</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL3DD76</t>
+  </si>
+  <si>
+    <t>03175674900</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL511B7</t>
+  </si>
+  <si>
+    <t>03176825600</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLA9DA3</t>
+  </si>
+  <si>
+    <t>03142038900</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLE68D1</t>
+  </si>
+  <si>
+    <t>03143177300</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL77D5A</t>
+  </si>
+  <si>
+    <t>03143957300</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL1D8D0</t>
+  </si>
+  <si>
+    <t>03353459400</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL5E531</t>
+  </si>
+  <si>
+    <t>03355129500</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLB9FAE</t>
+  </si>
+  <si>
+    <t>03355955600</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL44C75</t>
+  </si>
+  <si>
+    <t>03824849500</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLE4FC9</t>
+  </si>
+  <si>
+    <t>03826570600</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL186D0</t>
+  </si>
+  <si>
+    <t>03827758100</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL24E5F</t>
+  </si>
+  <si>
+    <t>03539463400</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLF9BA1</t>
+  </si>
+  <si>
+    <t>03540430200</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL8A7D9</t>
+  </si>
+  <si>
+    <t>03541077200</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1443,7 @@
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>95</v>
@@ -1113,7 +1473,7 @@
         <v>24.778867194283279</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>24.918102709670986</v>
+        <v>24.125126982276527</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>75</v>
@@ -1169,7 +1529,7 @@
       </c>
       <c r="AW2" s="5"/>
       <c r="AY2" s="12" t="s">
-        <v>133</v>
+        <v>253</v>
       </c>
       <c r="AZ2" s="11" t="s">
         <v>88</v>
@@ -1207,7 +1567,7 @@
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>95</v>
@@ -1237,7 +1597,7 @@
         <v>24.473190244254056</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>24.10089653159682</v>
+        <v>24.349812618357568</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>75</v>
@@ -1293,7 +1653,7 @@
       </c>
       <c r="AW3" s="5"/>
       <c r="AY3" s="12" t="s">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="AZ3" s="11" t="s">
         <v>88</v>
@@ -1331,7 +1691,7 @@
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>95</v>
@@ -1361,7 +1721,7 @@
         <v>24.955290746872056</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>24.762808506327442</v>
+        <v>24.735438140229938</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>75</v>
@@ -1417,7 +1777,7 @@
       </c>
       <c r="AW4" s="5"/>
       <c r="AY4" s="12" t="s">
-        <v>137</v>
+        <v>257</v>
       </c>
       <c r="AZ4" s="11" t="s">
         <v>88</v>

--- a/Resources/ExcelTemplateForOutletCreation.xlsx
+++ b/Resources/ExcelTemplateForOutletCreation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="144">
   <si>
     <t>Outlet Code</t>
   </si>
@@ -433,6 +433,24 @@
   </si>
   <si>
     <t>03549211700</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL4F9C3</t>
+  </si>
+  <si>
+    <t>03544443800</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL9BE58</t>
+  </si>
+  <si>
+    <t>03545976400</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL88D3C</t>
+  </si>
+  <si>
+    <t>03547207100</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1101,7 @@
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>95</v>
@@ -1113,7 +1131,7 @@
         <v>24.778867194283279</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>24.918102709670986</v>
+        <v>24.61148213501154</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>75</v>
@@ -1169,7 +1187,7 @@
       </c>
       <c r="AW2" s="5"/>
       <c r="AY2" s="12" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AZ2" s="11" t="s">
         <v>88</v>
@@ -1207,7 +1225,7 @@
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>95</v>
@@ -1237,7 +1255,7 @@
         <v>24.473190244254056</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>24.10089653159682</v>
+        <v>24.05281977257208</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>75</v>
@@ -1293,7 +1311,7 @@
       </c>
       <c r="AW3" s="5"/>
       <c r="AY3" s="12" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AZ3" s="11" t="s">
         <v>88</v>
@@ -1331,7 +1349,7 @@
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>95</v>
@@ -1361,7 +1379,7 @@
         <v>24.955290746872056</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>24.762808506327442</v>
+        <v>24.473280672115592</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>75</v>
@@ -1417,7 +1435,7 @@
       </c>
       <c r="AW4" s="5"/>
       <c r="AY4" s="12" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AZ4" s="11" t="s">
         <v>88</v>

--- a/Resources/ExcelTemplateForOutletCreation.xlsx
+++ b/Resources/ExcelTemplateForOutletCreation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="282">
   <si>
     <t>Outlet Code</t>
   </si>
@@ -451,6 +451,420 @@
   </si>
   <si>
     <t>03547207100</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLF973D</t>
+  </si>
+  <si>
+    <t>03119053000</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLE8CCB</t>
+  </si>
+  <si>
+    <t>03121341200</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL467FE</t>
+  </si>
+  <si>
+    <t>03122920300</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL1DBE9</t>
+  </si>
+  <si>
+    <t>03888336200</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL1BE9F</t>
+  </si>
+  <si>
+    <t>03891141000</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL1D0C2</t>
+  </si>
+  <si>
+    <t>03893514700</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL9AC17</t>
+  </si>
+  <si>
+    <t>03989938800</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL1FF72</t>
+  </si>
+  <si>
+    <t>03991196600</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLF3A5E</t>
+  </si>
+  <si>
+    <t>03992162900</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLCEEF7</t>
+  </si>
+  <si>
+    <t>03263939700</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLBDE51</t>
+  </si>
+  <si>
+    <t>03266034600</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLA4673</t>
+  </si>
+  <si>
+    <t>03267608500</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLCD467</t>
+  </si>
+  <si>
+    <t>03264955900</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLC9656</t>
+  </si>
+  <si>
+    <t>03266997300</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL37BB1</t>
+  </si>
+  <si>
+    <t>03268703100</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL75C25</t>
+  </si>
+  <si>
+    <t>03095101600</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLBFBBC</t>
+  </si>
+  <si>
+    <t>03096238000</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL07A04</t>
+  </si>
+  <si>
+    <t>03097229000</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLF781F</t>
+  </si>
+  <si>
+    <t>03295977300</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL72015</t>
+  </si>
+  <si>
+    <t>03297547300</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLA922C</t>
+  </si>
+  <si>
+    <t>03298952300</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL1DB73</t>
+  </si>
+  <si>
+    <t>03551918000</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL3DA33</t>
+  </si>
+  <si>
+    <t>03553635600</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL456D6</t>
+  </si>
+  <si>
+    <t>03554520500</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL23C90</t>
+  </si>
+  <si>
+    <t>03540794500</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLF61C9</t>
+  </si>
+  <si>
+    <t>03543700900</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLA922D</t>
+  </si>
+  <si>
+    <t>03545744300</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLFDC5D</t>
+  </si>
+  <si>
+    <t>03092418900</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL3FEAD</t>
+  </si>
+  <si>
+    <t>03094514800</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLEFA3F</t>
+  </si>
+  <si>
+    <t>03096134500</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL8ECFA</t>
+  </si>
+  <si>
+    <t>03785277900</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL498E1</t>
+  </si>
+  <si>
+    <t>03787170500</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL8CF6F</t>
+  </si>
+  <si>
+    <t>03788505000</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL0D706</t>
+  </si>
+  <si>
+    <t>03708508600</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL1FB79</t>
+  </si>
+  <si>
+    <t>03710389100</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL3B6A9</t>
+  </si>
+  <si>
+    <t>03712165500</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL5C997</t>
+  </si>
+  <si>
+    <t>03463922800</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL02C44</t>
+  </si>
+  <si>
+    <t>03465165000</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL692FD</t>
+  </si>
+  <si>
+    <t>03466194300</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL3B68C</t>
+  </si>
+  <si>
+    <t>03762582900</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLADB99</t>
+  </si>
+  <si>
+    <t>03765491000</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL34388</t>
+  </si>
+  <si>
+    <t>03768241900</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL2E1BB</t>
+  </si>
+  <si>
+    <t>03188776600</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL375EF</t>
+  </si>
+  <si>
+    <t>03197088000</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL82D90</t>
+  </si>
+  <si>
+    <t>03201022900</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLA9031</t>
+  </si>
+  <si>
+    <t>03565709100</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL97E2B</t>
+  </si>
+  <si>
+    <t>03577901200</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL2648B</t>
+  </si>
+  <si>
+    <t>03580901800</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLA22B9</t>
+  </si>
+  <si>
+    <t>03651952900</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL36A9D</t>
+  </si>
+  <si>
+    <t>03659760900</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL186FE</t>
+  </si>
+  <si>
+    <t>03664558000</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL30770</t>
+  </si>
+  <si>
+    <t>03641810700</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLF5993</t>
+  </si>
+  <si>
+    <t>03650907200</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL57C87</t>
+  </si>
+  <si>
+    <t>03656768000</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL62D6A</t>
+  </si>
+  <si>
+    <t>03332287100</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL54368</t>
+  </si>
+  <si>
+    <t>03336450400</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL50127</t>
+  </si>
+  <si>
+    <t>03339238100</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL08CE7</t>
+  </si>
+  <si>
+    <t>03819977000</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLC6FE6</t>
+  </si>
+  <si>
+    <t>03826142600</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLF785A</t>
+  </si>
+  <si>
+    <t>03830833100</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLEA47F</t>
+  </si>
+  <si>
+    <t>03503323200</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL20899</t>
+  </si>
+  <si>
+    <t>03506556800</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL860D0</t>
+  </si>
+  <si>
+    <t>03507911700</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLBCDC5</t>
+  </si>
+  <si>
+    <t>03519283900</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL1BD5D</t>
+  </si>
+  <si>
+    <t>03523334100</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL0B29C</t>
+  </si>
+  <si>
+    <t>03526272000</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLFB72D</t>
+  </si>
+  <si>
+    <t>03367678700</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLB4FF7</t>
+  </si>
+  <si>
+    <t>03371241100</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLFDE14</t>
+  </si>
+  <si>
+    <t>03373138400</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1515,7 @@
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>276</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>95</v>
@@ -1131,7 +1545,7 @@
         <v>24.778867194283279</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>24.61148213501154</v>
+        <v>24.092802819185753</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>75</v>
@@ -1187,7 +1601,7 @@
       </c>
       <c r="AW2" s="5"/>
       <c r="AY2" s="12" t="s">
-        <v>139</v>
+        <v>277</v>
       </c>
       <c r="AZ2" s="11" t="s">
         <v>88</v>
@@ -1225,7 +1639,7 @@
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>278</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>95</v>
@@ -1255,7 +1669,7 @@
         <v>24.473190244254056</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>24.05281977257208</v>
+        <v>24.602762606362692</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>75</v>
@@ -1311,7 +1725,7 @@
       </c>
       <c r="AW3" s="5"/>
       <c r="AY3" s="12" t="s">
-        <v>141</v>
+        <v>279</v>
       </c>
       <c r="AZ3" s="11" t="s">
         <v>88</v>
@@ -1349,7 +1763,7 @@
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>95</v>
@@ -1379,7 +1793,7 @@
         <v>24.955290746872056</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>24.473280672115592</v>
+        <v>24.59323193727181</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>75</v>
@@ -1435,7 +1849,7 @@
       </c>
       <c r="AW4" s="5"/>
       <c r="AY4" s="12" t="s">
-        <v>143</v>
+        <v>281</v>
       </c>
       <c r="AZ4" s="11" t="s">
         <v>88</v>

--- a/Resources/ExcelTemplateForOutletCreation.xlsx
+++ b/Resources/ExcelTemplateForOutletCreation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="294">
   <si>
     <t>Outlet Code</t>
   </si>
@@ -865,6 +865,42 @@
   </si>
   <si>
     <t>03373138400</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLB37D4</t>
+  </si>
+  <si>
+    <t>03867266600</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLB321C</t>
+  </si>
+  <si>
+    <t>03869473800</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL25E02</t>
+  </si>
+  <si>
+    <t>03871485300</t>
+  </si>
+  <si>
+    <t>AUTO_OUTLF76E1</t>
+  </si>
+  <si>
+    <t>03973832500</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL5C0F0</t>
+  </si>
+  <si>
+    <t>03976278100</t>
+  </si>
+  <si>
+    <t>AUTO_OUTL721D0</t>
+  </si>
+  <si>
+    <t>03978246500</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +1551,7 @@
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>95</v>
@@ -1545,7 +1581,7 @@
         <v>24.778867194283279</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>24.092802819185753</v>
+        <v>24.80217461268756</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>75</v>
@@ -1601,7 +1637,7 @@
       </c>
       <c r="AW2" s="5"/>
       <c r="AY2" s="12" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AZ2" s="11" t="s">
         <v>88</v>
@@ -1639,7 +1675,7 @@
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>95</v>
@@ -1669,7 +1705,7 @@
         <v>24.473190244254056</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>24.602762606362692</v>
+        <v>24.661119311806317</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>75</v>
@@ -1725,7 +1761,7 @@
       </c>
       <c r="AW3" s="5"/>
       <c r="AY3" s="12" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AZ3" s="11" t="s">
         <v>88</v>
@@ -1763,7 +1799,7 @@
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>95</v>
@@ -1793,7 +1829,7 @@
         <v>24.955290746872056</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>24.59323193727181</v>
+        <v>24.444845834022193</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>75</v>
@@ -1849,7 +1885,7 @@
       </c>
       <c r="AW4" s="5"/>
       <c r="AY4" s="12" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="AZ4" s="11" t="s">
         <v>88</v>
